--- a/textToOps/data/op_type.xlsx
+++ b/textToOps/data/op_type.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>done,data queries,network analysis,classification,data queries,overlay analysis,data queries,network analysis,classification,data queries,overlay analysis,0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -464,7 +464,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>done,data queries,data queries,1</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>done,data queries,overlay analysis,data queries,data queries,overlay analysis,data queries,2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -490,7 +490,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>done,data queries,geometry measurement,data queries,data queries,geometry measurement,data queries,8</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -503,7 +503,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>done,data editing,data queries,data editing,data queries,9</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -516,7 +516,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>done,data queries,buffer,overlay analysis,data queries,buffer,overlay analysis,10</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -529,7 +529,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data editing,data queries</t>
+          <t>done,topography,classification,data queries,data model conversion,overlay analysis,topography,classification,data queries,data model conversion,overlay analysis,17</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -542,7 +542,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>data editing,classification</t>
+          <t>done,data queries,buffer,overlay analysis,data queries,data queries,buffer,overlay analysis,data queries,21</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -555,427 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>done,data queries,geostatistics  ,data queries,geostatistics  ,32</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>data editing,data queries</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>data queries,buffer,buffer,overlay analysis,overlay analysis</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>data editing,data queries,network analysis,classification,data queries,overlay analysis,data queries,overlay analysis,data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries,overlay analysis,data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data editing,data queries</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>overlay analysis,topography</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>data queries,overlay analysis,data editing,data queries</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>data editing,data queries,overlay analysis,data editing,data queries</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>data editing,data queries,data editing</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data editing,data queries,generalization,geostatistics  </t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>data editing,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>data editing,data queries,overlay analysis,data editing</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>data editing,data queries,network analysis,data queries</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>data queries,network analysis</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis,data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>data queries,buffer,buffer,buffer,overlay analysis,overlay analysis,overlay analysis,geometry measurement,data queries,geometry measurement,data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries,buffer,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>geocoding,data queries,network analysis,data queries</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
